--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1995.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1995.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.17526488401996</v>
+        <v>0.6125495433807373</v>
       </c>
       <c r="B1">
-        <v>2.219710806916817</v>
+        <v>1.081016182899475</v>
       </c>
       <c r="C1">
-        <v>8.382501613436801</v>
+        <v>4.315365791320801</v>
       </c>
       <c r="D1">
-        <v>2.579184081546689</v>
+        <v>4.67966890335083</v>
       </c>
       <c r="E1">
-        <v>1.211953102128601</v>
+        <v>1.922793507575989</v>
       </c>
     </row>
   </sheetData>
